--- a/QuanLyKhoHangLaptop/bin/database/DanhSachNguoiDung.xlsx
+++ b/QuanLyKhoHangLaptop/bin/database/DanhSachNguoiDung.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t/>
   </si>
@@ -50,34 +50,13 @@
     <t>0312</t>
   </si>
   <si>
-    <t>ND3</t>
-  </si>
-  <si>
-    <t>HuyenMy</t>
-  </si>
-  <si>
-    <t>1102</t>
-  </si>
-  <si>
-    <t>ND4</t>
-  </si>
-  <si>
-    <t>AnhKiet</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
     <t>ND5</t>
   </si>
   <si>
     <t>MyNhan</t>
   </si>
   <si>
-    <t>ND6</t>
-  </si>
-  <si>
-    <t>NgocMai</t>
+    <t>1234</t>
   </si>
 </sst>
 </file>
@@ -122,7 +101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -196,57 +175,6 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="D5" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E5" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="D6" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E6" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="D7" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E7" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
